--- a/biology/Zoologie/Euscorpius_scaber/Euscorpius_scaber.xlsx
+++ b/biology/Zoologie/Euscorpius_scaber/Euscorpius_scaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euscorpius scaber est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Grèce[1]. Elle se rencontre au Mont-Athos, en Chalcidique et à Thasos.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Grèce. Elle se rencontre au Mont-Athos, en Chalcidique et à Thasos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles décrits par Fet, Soleglad, Parmakelis, Kotsakiozi et Stathi en 2013 mesurent 27,95 mm et 29,10 mm et les femelles 25,80 mm et 26,20 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles décrits par Fet, Soleglad, Parmakelis, Kotsakiozi et Stathi en 2013 mesurent 27,95 mm et 29,10 mm et les femelles 25,80 mm et 26,20 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Birula en 1900. Elle est placée en synonymie avec Euscorpius carpathicus par Kinzelbach en 1975[2].  Elle est relevée de sa synonymie et considérée comme sous-espèce d'Euscorpius carpathicus par Soleglad en 1976[3]. Elle est élevée au rang d'espèce par Fet, Soleglad, Parmakelis, Kotsakiozi et Stathi en 2013[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Birula en 1900. Elle est placée en synonymie avec Euscorpius carpathicus par Kinzelbach en 1975.  Elle est relevée de sa synonymie et considérée comme sous-espèce d'Euscorpius carpathicus par Soleglad en 1976. Elle est élevée au rang d'espèce par Fet, Soleglad, Parmakelis, Kotsakiozi et Stathi en 2013.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1900 : Scorpiones mediterranei Musei Zoologici mosquensis. Izvestiya Imperatorskogo Obshchestva Lyubitelei Prirody, Istorii, Antropologii i Etnografii, vol. 98, no 3, p. 8-20.</t>
         </is>
